--- a/Thesis/Overleaf Version/output fungsi ketiga.xlsx
+++ b/Thesis/Overleaf Version/output fungsi ketiga.xlsx
@@ -240,12 +240,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,13 +288,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -43193,8 +43203,8 @@
   </sheetPr>
   <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A196" activeCellId="0" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47807,210 +47817,210 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
+      <c r="A180" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" s="0" t="n">
+      <c r="B180" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="n">
+      <c r="A181" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B181" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C181" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D181" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" s="0" t="n">
+      <c r="B181" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
+      <c r="A182" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B182" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C182" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D182" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" s="0" t="n">
+      <c r="B182" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="n">
+      <c r="A183" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B183" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C183" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E183" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H183" s="0" t="n">
+      <c r="B183" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="n">
+      <c r="A184" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B184" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C184" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D184" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E184" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H184" s="0" t="n">
+      <c r="B184" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
+      <c r="A185" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B185" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C185" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D185" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E185" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H185" s="0" t="n">
+      <c r="B185" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="n">
+      <c r="A186" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B186" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C186" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H186" s="0" t="n">
+      <c r="B186" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="n">
+      <c r="A187" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B187" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C187" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H187" s="0" t="n">
+      <c r="B187" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53581,211 +53591,211 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="n">
+    <row r="196" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B196" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H196" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="n">
+      <c r="B196" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B197" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C197" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G197" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="n">
+      <c r="B197" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B198" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
+      <c r="B198" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B199" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C199" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="n">
+      <c r="B199" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B200" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C200" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G200" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="n">
+      <c r="B200" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B201" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C201" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H201" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="n">
+      <c r="B201" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B202" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C202" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F202" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="n">
+      <c r="B202" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B203" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C203" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" s="0" t="n">
+      <c r="B203" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Thesis/Overleaf Version/output fungsi ketiga.xlsx
+++ b/Thesis/Overleaf Version/output fungsi ketiga.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Run Codes" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="67">
   <si>
     <t xml:space="preserve">Hasil x_k -- total gula k yang dibeli</t>
   </si>
@@ -150,6 +150,33 @@
     <t xml:space="preserve">x_hat_stb</t>
   </si>
   <si>
+    <t xml:space="preserve">Total demand pada minggu 1: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total demand pada minggu 2 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total demand pada minggu 3 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total demand pada minggu 4 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saldo week -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pengiriman week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selisih</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total demand pada minggu 1: 373288.1</t>
   </si>
   <si>
@@ -213,10 +240,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -238,6 +266,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,7 +322,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,6 +332,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -43056,7 +43106,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48562,7 +48612,7 @@
   </sheetPr>
   <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -53919,13 +53969,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.45"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -54368,7 +54421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>39</v>
       </c>
@@ -54381,8 +54434,11 @@
       <c r="D36" s="0" t="n">
         <v>6552.58333333337</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>39</v>
       </c>
@@ -54395,8 +54451,11 @@
       <c r="D37" s="0" t="n">
         <v>65295</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>39</v>
       </c>
@@ -54409,8 +54468,11 @@
       <c r="D38" s="0" t="n">
         <v>81722</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>39</v>
       </c>
@@ -54422,6 +54484,9 @@
       </c>
       <c r="D39" s="0" t="n">
         <v>39079</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54452,7 +54517,7 @@
         <v>23595</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>39</v>
       </c>
@@ -54465,8 +54530,26 @@
       <c r="D42" s="0" t="n">
         <v>96122</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>39</v>
       </c>
@@ -54479,8 +54562,26 @@
       <c r="D43" s="0" t="n">
         <v>68829</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>3250</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>2500.9166666667</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>2500.86666666667</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <v>2500.36666666667</v>
+      </c>
+      <c r="K43" s="4" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>39</v>
       </c>
@@ -54493,8 +54594,26 @@
       <c r="D44" s="0" t="n">
         <v>41091.6666666666</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>2850</v>
+      </c>
+      <c r="H44" s="4" t="n">
+        <v>181743.416666667</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>2500.86666666667</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <v>2500.36666666667</v>
+      </c>
+      <c r="K44" s="4" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>39</v>
       </c>
@@ -54507,8 +54626,26 @@
       <c r="D45" s="0" t="n">
         <v>26550</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>3300</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K45" s="4" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>39</v>
       </c>
@@ -54521,8 +54658,26 @@
       <c r="D46" s="0" t="n">
         <v>14400</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>2500.16666666667</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>2500.66666666667</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>2500.66666666667</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>39</v>
       </c>
@@ -54535,8 +54690,26 @@
       <c r="D47" s="0" t="n">
         <v>8700</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K47" s="4" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>39</v>
       </c>
@@ -54548,6 +54721,24 @@
       </c>
       <c r="D48" s="0" t="n">
         <v>33264.0500000001</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>3050</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K48" s="4" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54563,8 +54754,13 @@
       <c r="D49" s="0" t="n">
         <v>209</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>39</v>
       </c>
@@ -54577,8 +54773,28 @@
       <c r="D50" s="0" t="n">
         <v>18369</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5" t="n">
+        <v>373288.1</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>416316.1</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <v>210614</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>142325.4</v>
+      </c>
+      <c r="M50" s="4" t="n">
+        <f aca="false">SUM(H50:K50)</f>
+        <v>1142543.6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>39</v>
       </c>
@@ -54590,6 +54806,25 @@
       </c>
       <c r="D51" s="0" t="n">
         <v>4666</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <f aca="false">SUM(G43:G48)</f>
+        <v>18450</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <f aca="false">SUM(H43:H48)</f>
+        <v>194244.5</v>
+      </c>
+      <c r="J51" s="4" t="n">
+        <f aca="false">SUM(I43:I48)</f>
+        <v>15002.4</v>
+      </c>
+      <c r="K51" s="4" t="n">
+        <f aca="false">SUM(J43:J48)</f>
+        <v>15001.4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54605,8 +54840,24 @@
       <c r="D52" s="0" t="n">
         <v>42607.5</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <f aca="false">SUM(D36,D40,D44,D48,D52,D56)</f>
+        <v>549082.6</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>237074</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>210613</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>142324</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>39</v>
       </c>
@@ -54618,6 +54869,29 @@
       </c>
       <c r="D53" s="0" t="n">
         <v>10350</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="4" t="n">
+        <f aca="false">H52+H51-H50</f>
+        <v>194244.5</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <f aca="false">I52+I51-I50</f>
+        <v>15002.4000000004</v>
+      </c>
+      <c r="J53" s="4" t="n">
+        <f aca="false">J52+J51-J50</f>
+        <v>15001.4</v>
+      </c>
+      <c r="K53" s="4" t="n">
+        <f aca="false">K52+K51-K50</f>
+        <v>15000</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">K53/2500</f>
+        <v>6.00000000000001</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54720,31 +54994,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="6" t="n">
+        <v>373288</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -54753,6 +55030,10 @@
       <c r="B6" s="0" t="n">
         <v>3250</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">SUM(B6:B11)</f>
+        <v>18450</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -54761,6 +55042,10 @@
       <c r="B7" s="0" t="n">
         <v>2850</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">D17</f>
+        <v>354839</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -54768,6 +55053,10 @@
       </c>
       <c r="B8" s="0" t="n">
         <v>3300</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">E5-E6-E7</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54796,7 +55085,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54899,17 +55188,36 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>416316.1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="0" t="n">
+        <f aca="false">SUM(D30:D35)</f>
+        <v>194244.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">SUM(D40:D45)</f>
+        <v>237074</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="0" t="n">
+        <f aca="false">G25-G26-G27</f>
+        <v>-15002.4000000004</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55012,7 +55320,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55115,17 +55423,17 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55228,7 +55536,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55331,17 +55639,17 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55444,7 +55752,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55563,15 +55871,15 @@
   </sheetPr>
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55579,7 +55887,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55792,7 +56100,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55800,7 +56108,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56045,7 +56353,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56053,7 +56361,7 @@
         <v>15</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56226,7 +56534,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56234,7 +56542,7 @@
         <v>15</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
